--- a/data/trans_orig/P33_2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33_2_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2174EDB-8273-41EE-AFBB-8F929D42E877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C7A4389-89C8-4ED0-808E-4B013777D37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7269BF0A-9FE6-43DE-848E-D4A6CC06A6F3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D9B15621-348E-482C-B533-1335A6E66D7A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="490">
   <si>
     <t>Población según las horas que duerme habitualmente al dia y los fines de semana en 2023 (Tasa respuesta: 97,07%)</t>
   </si>
@@ -86,7 +86,7 @@
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,21%</t>
+    <t>1,34%</t>
   </si>
   <si>
     <t>1,16%</t>
@@ -98,1384 +98,1393 @@
     <t>0,65%</t>
   </si>
   <si>
-    <t>3,18%</t>
+    <t>3,66%</t>
   </si>
   <si>
     <t>0,32%</t>
   </si>
   <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
+    <t>2,58%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
   </si>
   <si>
     <t>29,5%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
   </si>
   <si>
     <t>5,1%</t>
   </si>
   <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
+    <t>6,59%</t>
   </si>
   <si>
     <t>5,03%</t>
@@ -1484,16 +1493,16 @@
     <t>5,52%</t>
   </si>
   <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
+    <t>2,25%</t>
   </si>
   <si>
     <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1908,7 +1917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75269C6-8D8C-4862-A686-5149BCFDF8F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF48E2EB-94BC-476E-ACD0-5078E17C879B}">
   <dimension ref="A1:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2521,13 +2530,13 @@
         <v>15266</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2542,13 +2551,13 @@
         <v>3422</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -2557,13 +2566,13 @@
         <v>5093</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -2572,13 +2581,13 @@
         <v>8515</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2695,13 +2704,13 @@
         <v>352341</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H17" s="7">
         <v>204</v>
@@ -2710,13 +2719,13 @@
         <v>346929</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M17" s="7">
         <v>369</v>
@@ -2725,18 +2734,18 @@
         <v>699270</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" s="5">
         <v>15</v>
@@ -2769,7 +2778,7 @@
         <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -2784,7 +2793,7 @@
         <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,13 +2823,13 @@
         <v>1284</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -2829,13 +2838,13 @@
         <v>1284</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2850,13 +2859,13 @@
         <v>2185</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -2865,13 +2874,13 @@
         <v>2830</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -2880,13 +2889,13 @@
         <v>5015</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2901,7 +2910,7 @@
         <v>1551</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
@@ -2922,7 +2931,7 @@
         <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -2937,7 +2946,7 @@
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,13 +2961,13 @@
         <v>12899</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -2967,13 +2976,13 @@
         <v>16052</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -2982,7 +2991,7 @@
         <v>28951</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>112</v>
@@ -3225,10 +3234,10 @@
         <v>153</v>
       </c>
       <c r="K27" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M27" s="7">
         <v>22</v>
@@ -3237,13 +3246,13 @@
         <v>27364</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,13 +3267,13 @@
         <v>2743</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -3273,13 +3282,13 @@
         <v>5989</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M28" s="7">
         <v>7</v>
@@ -3288,7 +3297,7 @@
         <v>8732</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>163</v>
@@ -3309,13 +3318,13 @@
         <v>2422</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -3330,7 +3339,7 @@
         <v>13</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -3339,13 +3348,13 @@
         <v>2422</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3381,7 +3390,7 @@
         <v>13</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -3396,7 +3405,7 @@
         <v>13</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3411,13 +3420,13 @@
         <v>412480</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H31" s="7">
         <v>445</v>
@@ -3426,13 +3435,13 @@
         <v>482738</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M31" s="7">
         <v>740</v>
@@ -3441,18 +3450,18 @@
         <v>895218</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B32" s="5">
         <v>15</v>
@@ -3470,7 +3479,7 @@
         <v>13</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3485,7 +3494,7 @@
         <v>13</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3500,7 +3509,7 @@
         <v>13</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,7 +3530,7 @@
         <v>13</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -3536,7 +3545,7 @@
         <v>13</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -3551,7 +3560,7 @@
         <v>13</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,7 +3575,7 @@
         <v>1316</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
@@ -3587,7 +3596,7 @@
         <v>13</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -3596,13 +3605,13 @@
         <v>1316</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>170</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,7 +3632,7 @@
         <v>13</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -3638,7 +3647,7 @@
         <v>13</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -3653,7 +3662,7 @@
         <v>13</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3668,13 +3677,13 @@
         <v>7811</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>66</v>
+        <v>170</v>
       </c>
       <c r="H36" s="7">
         <v>15</v>
@@ -3683,13 +3692,13 @@
         <v>10486</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M36" s="7">
         <v>23</v>
@@ -3698,7 +3707,7 @@
         <v>18297</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>102</v>
+        <v>174</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>175</v>
@@ -3755,7 +3764,7 @@
         <v>184</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,13 +3779,13 @@
         <v>226347</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H38" s="7">
         <v>311</v>
@@ -3785,13 +3794,13 @@
         <v>219091</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M38" s="7">
         <v>530</v>
@@ -3800,13 +3809,13 @@
         <v>445438</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,13 +3830,13 @@
         <v>179865</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H39" s="7">
         <v>270</v>
@@ -3836,13 +3845,13 @@
         <v>181753</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M39" s="7">
         <v>457</v>
@@ -3851,13 +3860,13 @@
         <v>361618</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3872,13 +3881,13 @@
         <v>58133</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H40" s="7">
         <v>106</v>
@@ -3887,13 +3896,13 @@
         <v>70436</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>119</v>
+        <v>207</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M40" s="7">
         <v>163</v>
@@ -3902,13 +3911,13 @@
         <v>128569</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3923,13 +3932,13 @@
         <v>20477</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H41" s="7">
         <v>36</v>
@@ -3938,13 +3947,13 @@
         <v>21537</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M41" s="7">
         <v>53</v>
@@ -3953,13 +3962,13 @@
         <v>42013</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3974,13 +3983,13 @@
         <v>7486</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>166</v>
+        <v>221</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>25</v>
+        <v>222</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H42" s="7">
         <v>7</v>
@@ -3989,13 +3998,13 @@
         <v>4803</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>154</v>
+        <v>226</v>
       </c>
       <c r="M42" s="7">
         <v>15</v>
@@ -4004,13 +4013,13 @@
         <v>12290</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>224</v>
+        <v>96</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,7 +4040,7 @@
         <v>13</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H43" s="7">
         <v>2</v>
@@ -4040,13 +4049,13 @@
         <v>629</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M43" s="7">
         <v>2</v>
@@ -4055,13 +4064,13 @@
         <v>629</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>229</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,13 +4085,13 @@
         <v>1349</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -4091,13 +4100,13 @@
         <v>159</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="M44" s="7">
         <v>2</v>
@@ -4106,13 +4115,13 @@
         <v>1508</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,13 +4136,13 @@
         <v>544239</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H45" s="7">
         <v>812</v>
@@ -4142,13 +4151,13 @@
         <v>558048</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M45" s="7">
         <v>1347</v>
@@ -4157,18 +4166,18 @@
         <v>1102287</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B46" s="5">
         <v>15</v>
@@ -4186,7 +4195,7 @@
         <v>13</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -4216,7 +4225,7 @@
         <v>13</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4231,13 +4240,13 @@
         <v>1099</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H47" s="7">
         <v>1</v>
@@ -4246,13 +4255,13 @@
         <v>777</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="M47" s="7">
         <v>2</v>
@@ -4261,13 +4270,13 @@
         <v>1876</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>101</v>
+        <v>239</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,13 +4291,13 @@
         <v>2335</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H48" s="7">
         <v>1</v>
@@ -4297,7 +4306,7 @@
         <v>690</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>11</v>
@@ -4312,13 +4321,13 @@
         <v>3025</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>72</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>19</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,7 +4348,7 @@
         <v>13</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H49" s="7">
         <v>1</v>
@@ -4348,13 +4357,13 @@
         <v>686</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M49" s="7">
         <v>1</v>
@@ -4369,7 +4378,7 @@
         <v>11</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>92</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,13 +4393,13 @@
         <v>59866</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H50" s="7">
         <v>20</v>
@@ -4399,13 +4408,13 @@
         <v>12688</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M50" s="7">
         <v>29</v>
@@ -4414,13 +4423,13 @@
         <v>72555</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4435,13 +4444,13 @@
         <v>38061</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>178</v>
+        <v>255</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H51" s="7">
         <v>67</v>
@@ -4450,13 +4459,13 @@
         <v>46867</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>256</v>
+        <v>205</v>
       </c>
       <c r="M51" s="7">
         <v>102</v>
@@ -4465,13 +4474,13 @@
         <v>84928</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>155</v>
+        <v>260</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4486,13 +4495,13 @@
         <v>247345</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H52" s="7">
         <v>381</v>
@@ -4501,13 +4510,13 @@
         <v>263233</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M52" s="7">
         <v>617</v>
@@ -4516,13 +4525,13 @@
         <v>510579</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4537,13 +4546,13 @@
         <v>216962</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H53" s="7">
         <v>387</v>
@@ -4552,13 +4561,13 @@
         <v>248773</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M53" s="7">
         <v>613</v>
@@ -4567,13 +4576,13 @@
         <v>465735</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4588,13 +4597,13 @@
         <v>100087</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="H54" s="7">
         <v>169</v>
@@ -4603,13 +4612,13 @@
         <v>100321</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="M54" s="7">
         <v>270</v>
@@ -4618,13 +4627,13 @@
         <v>200408</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>57</v>
+        <v>288</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4639,13 +4648,13 @@
         <v>27822</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>287</v>
+        <v>110</v>
       </c>
       <c r="H55" s="7">
         <v>70</v>
@@ -4654,13 +4663,13 @@
         <v>42211</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M55" s="7">
         <v>99</v>
@@ -4669,13 +4678,13 @@
         <v>70033</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>292</v>
+        <v>218</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4690,13 +4699,13 @@
         <v>9765</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>166</v>
+        <v>221</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>159</v>
+        <v>297</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H56" s="7">
         <v>18</v>
@@ -4705,13 +4714,13 @@
         <v>12216</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="M56" s="7">
         <v>27</v>
@@ -4720,13 +4729,13 @@
         <v>21980</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4741,13 +4750,13 @@
         <v>759</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>300</v>
+        <v>96</v>
       </c>
       <c r="H57" s="7">
         <v>2</v>
@@ -4762,7 +4771,7 @@
         <v>11</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>170</v>
+        <v>244</v>
       </c>
       <c r="M57" s="7">
         <v>3</v>
@@ -4771,13 +4780,13 @@
         <v>2011</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4798,7 +4807,7 @@
         <v>11</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>247</v>
+        <v>305</v>
       </c>
       <c r="H58" s="7">
         <v>1</v>
@@ -4807,13 +4816,13 @@
         <v>745</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M58" s="7">
         <v>3</v>
@@ -4822,13 +4831,13 @@
         <v>3000</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,13 +4852,13 @@
         <v>706356</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H59" s="7">
         <v>1118</v>
@@ -4858,13 +4867,13 @@
         <v>730459</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M59" s="7">
         <v>1769</v>
@@ -4873,18 +4882,18 @@
         <v>1436816</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B60" s="5">
         <v>15</v>
@@ -4902,7 +4911,7 @@
         <v>13</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>305</v>
+        <v>82</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -4917,7 +4926,7 @@
         <v>13</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M60" s="7">
         <v>0</v>
@@ -4932,7 +4941,7 @@
         <v>13</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>169</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4953,7 +4962,7 @@
         <v>13</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>305</v>
+        <v>82</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -4968,7 +4977,7 @@
         <v>13</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M61" s="7">
         <v>0</v>
@@ -4983,7 +4992,7 @@
         <v>13</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>169</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -5004,7 +5013,7 @@
         <v>13</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>305</v>
+        <v>82</v>
       </c>
       <c r="H62" s="7">
         <v>2</v>
@@ -5013,13 +5022,13 @@
         <v>1217</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K62" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M62" s="7">
         <v>2</v>
@@ -5028,13 +5037,13 @@
         <v>1217</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P62" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>308</v>
+        <v>225</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -5055,7 +5064,7 @@
         <v>13</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>305</v>
+        <v>82</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
@@ -5070,7 +5079,7 @@
         <v>13</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M63" s="7">
         <v>0</v>
@@ -5085,7 +5094,7 @@
         <v>13</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>169</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -5100,13 +5109,13 @@
         <v>5392</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>308</v>
+        <v>167</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H64" s="7">
         <v>8</v>
@@ -5115,13 +5124,13 @@
         <v>5226</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>311</v>
+        <v>151</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>154</v>
+        <v>313</v>
       </c>
       <c r="M64" s="7">
         <v>14</v>
@@ -5130,13 +5139,13 @@
         <v>10618</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -5151,13 +5160,13 @@
         <v>34935</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>204</v>
+        <v>319</v>
       </c>
       <c r="H65" s="7">
         <v>41</v>
@@ -5166,13 +5175,13 @@
         <v>24782</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>318</v>
+        <v>260</v>
       </c>
       <c r="M65" s="7">
         <v>77</v>
@@ -5181,13 +5190,13 @@
         <v>59717</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,13 +5211,13 @@
         <v>206662</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H66" s="7">
         <v>261</v>
@@ -5217,13 +5226,13 @@
         <v>164648</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M66" s="7">
         <v>476</v>
@@ -5232,13 +5241,13 @@
         <v>371310</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,13 +5262,13 @@
         <v>192057</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H67" s="7">
         <v>337</v>
@@ -5268,13 +5277,13 @@
         <v>195852</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M67" s="7">
         <v>561</v>
@@ -5283,13 +5292,13 @@
         <v>387909</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,13 +5313,13 @@
         <v>110291</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>40</v>
+        <v>342</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="H68" s="7">
         <v>204</v>
@@ -5319,13 +5328,13 @@
         <v>117108</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="M68" s="7">
         <v>335</v>
@@ -5334,13 +5343,13 @@
         <v>227398</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,13 +5364,13 @@
         <v>24825</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>150</v>
+        <v>352</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="H69" s="7">
         <v>78</v>
@@ -5370,13 +5379,13 @@
         <v>42567</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="M69" s="7">
         <v>103</v>
@@ -5385,13 +5394,13 @@
         <v>67392</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5406,13 +5415,13 @@
         <v>3883</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>94</v>
+        <v>234</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>102</v>
+        <v>361</v>
       </c>
       <c r="H70" s="7">
         <v>22</v>
@@ -5421,13 +5430,13 @@
         <v>13016</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>355</v>
+        <v>303</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>297</v>
+        <v>362</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="M70" s="7">
         <v>27</v>
@@ -5436,13 +5445,13 @@
         <v>16898</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>357</v>
+        <v>91</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>312</v>
+        <v>79</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5457,13 +5466,13 @@
         <v>2760</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>359</v>
+        <v>165</v>
       </c>
       <c r="H71" s="7">
         <v>11</v>
@@ -5472,13 +5481,13 @@
         <v>6376</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>360</v>
+        <v>245</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>361</v>
+        <v>164</v>
       </c>
       <c r="M71" s="7">
         <v>14</v>
@@ -5487,13 +5496,13 @@
         <v>9136</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="P71" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>250</v>
+        <v>366</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,13 +5517,13 @@
         <v>904</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>363</v>
+        <v>14</v>
       </c>
       <c r="H72" s="7">
         <v>3</v>
@@ -5523,13 +5532,13 @@
         <v>1622</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="M72" s="7">
         <v>4</v>
@@ -5541,10 +5550,10 @@
         <v>15</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>366</v>
+        <v>72</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>95</v>
+        <v>245</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5559,13 +5568,13 @@
         <v>581709</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H73" s="7">
         <v>967</v>
@@ -5574,13 +5583,13 @@
         <v>572414</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M73" s="7">
         <v>1613</v>
@@ -5589,18 +5598,18 @@
         <v>1154122</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B74" s="5">
         <v>15</v>
@@ -5618,7 +5627,7 @@
         <v>13</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H74" s="7">
         <v>0</v>
@@ -5633,7 +5642,7 @@
         <v>13</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="M74" s="7">
         <v>0</v>
@@ -5648,7 +5657,7 @@
         <v>13</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5669,7 +5678,7 @@
         <v>13</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H75" s="7">
         <v>0</v>
@@ -5684,7 +5693,7 @@
         <v>13</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="M75" s="7">
         <v>0</v>
@@ -5699,7 +5708,7 @@
         <v>13</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -5714,13 +5723,13 @@
         <v>1545</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>229</v>
+        <v>372</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="H76" s="7">
         <v>6</v>
@@ -5729,13 +5738,13 @@
         <v>3958</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>163</v>
+        <v>374</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>371</v>
+        <v>314</v>
       </c>
       <c r="M76" s="7">
         <v>8</v>
@@ -5744,13 +5753,13 @@
         <v>5502</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -5765,13 +5774,13 @@
         <v>1431</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H77" s="7">
         <v>4</v>
@@ -5780,13 +5789,13 @@
         <v>2325</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>229</v>
+        <v>372</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M77" s="7">
         <v>6</v>
@@ -5798,10 +5807,10 @@
         <v>15</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>239</v>
+        <v>377</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -5816,13 +5825,13 @@
         <v>14222</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>164</v>
+        <v>378</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>374</v>
+        <v>84</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>174</v>
+        <v>379</v>
       </c>
       <c r="H78" s="7">
         <v>24</v>
@@ -5831,13 +5840,13 @@
         <v>14349</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>105</v>
+        <v>381</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>376</v>
+        <v>31</v>
       </c>
       <c r="M78" s="7">
         <v>43</v>
@@ -5846,13 +5855,13 @@
         <v>28571</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>378</v>
+        <v>84</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,13 +5876,13 @@
         <v>35333</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>382</v>
+        <v>181</v>
       </c>
       <c r="H79" s="7">
         <v>90</v>
@@ -5882,13 +5891,13 @@
         <v>56395</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="M79" s="7">
         <v>138</v>
@@ -5897,13 +5906,13 @@
         <v>91728</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>387</v>
+        <v>318</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>388</v>
+        <v>323</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,13 +5927,13 @@
         <v>201733</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H80" s="7">
         <v>390</v>
@@ -5933,13 +5942,13 @@
         <v>218928</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M80" s="7">
         <v>674</v>
@@ -5948,13 +5957,13 @@
         <v>420660</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -5969,10 +5978,10 @@
         <v>231859</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>399</v>
+        <v>276</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>400</v>
@@ -6125,10 +6134,10 @@
         <v>425</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>371</v>
+        <v>311</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>426</v>
+        <v>383</v>
       </c>
       <c r="H84" s="7">
         <v>49</v>
@@ -6137,13 +6146,13 @@
         <v>24949</v>
       </c>
       <c r="J84" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="K84" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="K84" s="7" t="s">
-        <v>377</v>
-      </c>
       <c r="L84" s="7" t="s">
-        <v>153</v>
+        <v>428</v>
       </c>
       <c r="M84" s="7">
         <v>66</v>
@@ -6152,13 +6161,13 @@
         <v>35655</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="P84" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>430</v>
+        <v>251</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -6173,13 +6182,13 @@
         <v>2944</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>235</v>
+        <v>375</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>431</v>
+        <v>311</v>
       </c>
       <c r="H85" s="7">
         <v>7</v>
@@ -6188,13 +6197,13 @@
         <v>3445</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>308</v>
+        <v>85</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>101</v>
+        <v>239</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M85" s="7">
         <v>12</v>
@@ -6203,13 +6212,13 @@
         <v>6389</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="P85" s="7" t="s">
-        <v>368</v>
+        <v>309</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>433</v>
+        <v>297</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -6224,13 +6233,13 @@
         <v>511</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F86" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="H86" s="7">
         <v>2</v>
@@ -6239,13 +6248,13 @@
         <v>848</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K86" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>234</v>
+        <v>73</v>
       </c>
       <c r="M86" s="7">
         <v>3</v>
@@ -6254,13 +6263,13 @@
         <v>1359</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="P86" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>73</v>
+        <v>372</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -6275,13 +6284,13 @@
         <v>681495</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H87" s="7">
         <v>1642</v>
@@ -6290,13 +6299,13 @@
         <v>992255</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M87" s="7">
         <v>2649</v>
@@ -6305,13 +6314,13 @@
         <v>1673750</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P87" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
@@ -6334,7 +6343,7 @@
         <v>11</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>73</v>
+        <v>367</v>
       </c>
       <c r="H88" s="7">
         <v>0</v>
@@ -6349,7 +6358,7 @@
         <v>13</v>
       </c>
       <c r="L88" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="M88" s="7">
         <v>1</v>
@@ -6358,13 +6367,13 @@
         <v>1557</v>
       </c>
       <c r="O88" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="P88" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q88" s="7" t="s">
-        <v>226</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
@@ -6379,13 +6388,13 @@
         <v>1099</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>235</v>
+        <v>104</v>
       </c>
       <c r="H89" s="7">
         <v>2</v>
@@ -6394,13 +6403,13 @@
         <v>2061</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="K89" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L89" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M89" s="7">
         <v>3</v>
@@ -6412,10 +6421,10 @@
         <v>72</v>
       </c>
       <c r="P89" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="Q89" s="7" t="s">
-        <v>93</v>
+        <v>239</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
@@ -6430,13 +6439,13 @@
         <v>7381</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>229</v>
+        <v>372</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>369</v>
+        <v>242</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>436</v>
+        <v>94</v>
       </c>
       <c r="H90" s="7">
         <v>13</v>
@@ -6445,13 +6454,13 @@
         <v>10938</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>305</v>
+        <v>82</v>
       </c>
       <c r="K90" s="7" t="s">
-        <v>235</v>
+        <v>375</v>
       </c>
       <c r="L90" s="7" t="s">
-        <v>170</v>
+        <v>96</v>
       </c>
       <c r="M90" s="7">
         <v>19</v>
@@ -6460,13 +6469,13 @@
         <v>18319</v>
       </c>
       <c r="O90" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P90" s="7" t="s">
-        <v>93</v>
+        <v>375</v>
       </c>
       <c r="Q90" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
@@ -6481,13 +6490,13 @@
         <v>2982</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>305</v>
+        <v>82</v>
       </c>
       <c r="H91" s="7">
         <v>7</v>
@@ -6496,13 +6505,13 @@
         <v>7000</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="K91" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="L91" s="7" t="s">
-        <v>10</v>
+        <v>434</v>
       </c>
       <c r="M91" s="7">
         <v>10</v>
@@ -6511,13 +6520,13 @@
         <v>9982</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P91" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q91" s="7" t="s">
-        <v>364</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
@@ -6532,13 +6541,13 @@
         <v>120786</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>439</v>
+        <v>312</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="H92" s="7">
         <v>90</v>
@@ -6547,13 +6556,13 @@
         <v>74517</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>31</v>
+        <v>437</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>441</v>
+        <v>70</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="M92" s="7">
         <v>148</v>
@@ -6562,13 +6571,13 @@
         <v>195303</v>
       </c>
       <c r="O92" s="7" t="s">
-        <v>220</v>
+        <v>439</v>
       </c>
       <c r="P92" s="7" t="s">
-        <v>361</v>
+        <v>440</v>
       </c>
       <c r="Q92" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
@@ -6583,13 +6592,13 @@
         <v>293113</v>
       </c>
       <c r="E93" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G93" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="F93" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="H93" s="7">
         <v>350</v>
@@ -6598,13 +6607,13 @@
         <v>310771</v>
       </c>
       <c r="J93" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="K93" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="L93" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="K93" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="L93" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="M93" s="7">
         <v>582</v>
@@ -6613,13 +6622,13 @@
         <v>603884</v>
       </c>
       <c r="O93" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="P93" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="P93" s="7" t="s">
+      <c r="Q93" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="Q93" s="7" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
@@ -6637,10 +6646,10 @@
         <v>451</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>262</v>
+        <v>452</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H94" s="7">
         <v>1642</v>
@@ -6649,13 +6658,13 @@
         <v>1240923</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K94" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M94" s="7">
         <v>2823</v>
@@ -6664,13 +6673,13 @@
         <v>2504916</v>
       </c>
       <c r="O94" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P94" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q94" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
@@ -6685,13 +6694,13 @@
         <v>959596</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H95" s="7">
         <v>1662</v>
@@ -6700,13 +6709,13 @@
         <v>1086463</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>245</v>
+        <v>463</v>
       </c>
       <c r="K95" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="L95" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="M95" s="7">
         <v>2747</v>
@@ -6715,13 +6724,13 @@
         <v>2046060</v>
       </c>
       <c r="O95" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="P95" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="Q95" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
@@ -6736,13 +6745,13 @@
         <v>441432</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="H96" s="7">
         <v>931</v>
@@ -6751,13 +6760,13 @@
         <v>653545</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="K96" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L96" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M96" s="7">
         <v>1446</v>
@@ -6766,13 +6775,13 @@
         <v>1094978</v>
       </c>
       <c r="O96" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="P96" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q96" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
@@ -6787,13 +6796,13 @@
         <v>134773</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="H97" s="7">
         <v>358</v>
@@ -6805,10 +6814,10 @@
         <v>27</v>
       </c>
       <c r="K97" s="7" t="s">
-        <v>255</v>
+        <v>481</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="M97" s="7">
         <v>518</v>
@@ -6817,13 +6826,13 @@
         <v>350254</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="P97" s="7" t="s">
-        <v>289</v>
+        <v>30</v>
       </c>
       <c r="Q97" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
@@ -6841,10 +6850,10 @@
         <v>17</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>482</v>
+        <v>101</v>
       </c>
       <c r="H98" s="7">
         <v>104</v>
@@ -6853,13 +6862,13 @@
         <v>66066</v>
       </c>
       <c r="J98" s="7" t="s">
-        <v>483</v>
+        <v>313</v>
       </c>
       <c r="K98" s="7" t="s">
-        <v>484</v>
+        <v>106</v>
       </c>
       <c r="L98" s="7" t="s">
-        <v>212</v>
+        <v>485</v>
       </c>
       <c r="M98" s="7">
         <v>146</v>
@@ -6868,13 +6877,13 @@
         <v>104071</v>
       </c>
       <c r="O98" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P98" s="7" t="s">
-        <v>161</v>
+        <v>487</v>
       </c>
       <c r="Q98" s="7" t="s">
-        <v>154</v>
+        <v>103</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
@@ -6889,13 +6898,13 @@
         <v>8885</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>93</v>
+        <v>239</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>360</v>
+        <v>25</v>
       </c>
       <c r="H99" s="7">
         <v>22</v>
@@ -6907,10 +6916,10 @@
         <v>21</v>
       </c>
       <c r="K99" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L99" s="7" t="s">
-        <v>436</v>
+        <v>488</v>
       </c>
       <c r="M99" s="7">
         <v>32</v>
@@ -6919,13 +6928,13 @@
         <v>20587</v>
       </c>
       <c r="O99" s="7" t="s">
-        <v>305</v>
+        <v>82</v>
       </c>
       <c r="P99" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q99" s="7" t="s">
-        <v>10</v>
+        <v>240</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
@@ -6940,13 +6949,13 @@
         <v>5018</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>72</v>
+        <v>231</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="H100" s="7">
         <v>7</v>
@@ -6955,13 +6964,13 @@
         <v>3375</v>
       </c>
       <c r="J100" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K100" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L100" s="7" t="s">
-        <v>306</v>
+        <v>370</v>
       </c>
       <c r="M100" s="7">
         <v>12</v>
@@ -6970,10 +6979,10 @@
         <v>8393</v>
       </c>
       <c r="O100" s="7" t="s">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="P100" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q100" s="7" t="s">
         <v>15</v>
@@ -6991,13 +7000,13 @@
         <v>3278620</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H101" s="7">
         <v>5188</v>
@@ -7006,13 +7015,13 @@
         <v>3682842</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K101" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L101" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M101" s="7">
         <v>8487</v>
@@ -7021,18 +7030,18 @@
         <v>6961463</v>
       </c>
       <c r="O101" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P101" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q101" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33_2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33_2_2023-Edad-trans_orig.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,16</t>
+          <t>8,15</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,04</t>
+          <t>8,02</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,1</t>
+          <t>8,09</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,98; 8,34</t>
+          <t>7,94; 8,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,85; 8,22</t>
+          <t>7,83; 8,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,96; 8,22</t>
+          <t>7,95; 8,21</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,72</t>
+          <t>7,69</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,57</t>
+          <t>7,5</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,64</t>
+          <t>7,59</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,55; 7,85</t>
+          <t>7,52; 7,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>7,29; 7,64</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>7,45; 7,7</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>7,55; 7,74</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,39</t>
+          <t>7,38</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,39</t>
+          <t>7,38</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,39</t>
+          <t>7,38</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,29; 7,49</t>
+          <t>7,28; 7,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,31; 7,47</t>
+          <t>7,31; 7,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,33; 7,45</t>
+          <t>7,32; 7,44</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,46</t>
+          <t>8,01</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,24</t>
+          <t>7,22</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,35</t>
+          <t>7,66</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,23; 8,03</t>
+          <t>7,21; 9,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,17; 7,31</t>
+          <t>7,15; 7,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,23; 7,63</t>
+          <t>7,21; 8,44</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,18</t>
+          <t>7,17</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,93</t>
+          <t>6,92</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,06</t>
+          <t>7,05</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,09; 7,27</t>
+          <t>7,07; 7,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,84; 7,01</t>
+          <t>6,83; 7,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,0; 7,12</t>
+          <t>6,98; 7,11</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,07</t>
+          <t>7,05</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,84</t>
+          <t>6,62</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,94</t>
+          <t>6,78</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,0; 7,15</t>
+          <t>6,95; 7,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,59; 6,97</t>
+          <t>6,19; 6,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,72; 7,02</t>
+          <t>6,43; 7,01</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,43</t>
+          <t>7,1</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,23</t>
+          <t>6,93</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,32</t>
+          <t>7,0</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,37; 7,59</t>
+          <t>6,97; 7,22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,08; 7,28</t>
+          <t>6,83; 7,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,25; 7,38</t>
+          <t>6,92; 7,08</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>7,57</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>7,17</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>7,37</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>7,37; 8,12</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>6,94; 7,26</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>7,23; 7,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_orig/P33_2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33_2_2023-Edad-trans_orig.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,94; 8,32</t>
+          <t>7,96; 8,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,83; 8,2</t>
+          <t>7,82; 8,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,95; 8,21</t>
+          <t>7,95; 8,22</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,52; 7,83</t>
+          <t>7,53; 7,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,29; 7,64</t>
+          <t>7,31; 7,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,45; 7,7</t>
+          <t>7,45; 7,69</t>
         </is>
       </c>
     </row>
@@ -684,12 +684,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,31; 7,46</t>
+          <t>7,3; 7,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,32; 7,44</t>
+          <t>7,31; 7,44</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,21; 9,07</t>
+          <t>7,2; 9,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,21; 8,44</t>
+          <t>7,21; 8,66</t>
         </is>
       </c>
     </row>
@@ -784,12 +784,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,83; 7,0</t>
+          <t>6,84; 7,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,98; 7,11</t>
+          <t>6,99; 7,11</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,95; 7,16</t>
+          <t>6,95; 7,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,19; 6,97</t>
+          <t>6,23; 6,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,43; 7,01</t>
+          <t>6,45; 7,02</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,97; 7,22</t>
+          <t>6,98; 7,22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,37; 8,12</t>
+          <t>7,37; 8,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,94; 7,26</t>
+          <t>6,96; 7,26</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7,23; 7,68</t>
+          <t>7,26; 7,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P33_2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33_2_2023-Edad-trans_orig.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según las horas que duerme habitualmente al día y los fines de semana</t>
+          <t>Número medio de horas que duerme habitualmente al día durante los fines de semana</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
